--- a/Assets/Resources/Naninovel/Spreadsheet/Scripts/StartLocation.xlsx
+++ b/Assets/Resources/Naninovel/Spreadsheet/Scripts/StartLocation.xlsx
@@ -332,9 +332,6 @@
     <t xml:space="preserve">I completed the quest. </t>
   </si>
   <si>
-    <t>Well, life goes on...</t>
-  </si>
-  <si>
     <t>uk-UA</t>
   </si>
   <si>
@@ -344,30 +341,12 @@
     <t>Привіт, {PlayerName}!</t>
   </si>
   <si>
-    <t>Радий тебе бачити.</t>
-  </si>
-  <si>
     <t>Маю для тебе важливе завдання.</t>
   </si>
   <si>
-    <t>Тобі слід поговорити з Беном у Локація2.</t>
-  </si>
-  <si>
     <t>Він знає, як допомогти.</t>
   </si>
   <si>
-    <t>Я чув, що ти мене шукаєш.</t>
-  </si>
-  <si>
-    <t>У мене для тебе є міні-гра.</t>
-  </si>
-  <si>
-    <t>Пройди його, і я надам тобі необхідну інформацію!</t>
-  </si>
-  <si>
-    <t>Ти завершив міні-гру!</t>
-  </si>
-  <si>
     <t>Тепер я можу тобі допомогти.</t>
   </si>
   <si>
@@ -377,15 +356,9 @@
     <t>Це саме той предмет, який мені потрібен!</t>
   </si>
   <si>
-    <t>Я знову тут...</t>
-  </si>
-  <si>
     <t>Але Бена немає.</t>
   </si>
   <si>
-    <t>Ще раз привіт, {PlayerName}!</t>
-  </si>
-  <si>
     <t>Ти повернувся?</t>
   </si>
   <si>
@@ -395,12 +368,6 @@
     <t>Дай мені цей предмет, і я допоможу тобі у подальших справах.</t>
   </si>
   <si>
-    <t>Ні, {PlayerName}!</t>
-  </si>
-  <si>
-    <t>Краще віддайте мені!</t>
-  </si>
-  <si>
     <t>Мені більш потрібно.</t>
   </si>
   <si>
@@ -413,15 +380,9 @@
     <t>Як ти міг! Мені це було потрібно!</t>
   </si>
   <si>
-    <t>Цей предмет потрібен Бену.</t>
-  </si>
-  <si>
     <t>Я віддаю його тобі.</t>
   </si>
   <si>
-    <t>Дякую!</t>
-  </si>
-  <si>
     <t>Я знав, що ти зробиш правильний вибір.</t>
   </si>
   <si>
@@ -431,18 +392,12 @@
     <t>Ні, я залишу його собі!</t>
   </si>
   <si>
-    <t>Це нечесно, {PlayerName}!</t>
-  </si>
-  <si>
     <t>Ти не заслуговуєш на довіру.</t>
   </si>
   <si>
     <t>Ти просто егоїст!</t>
   </si>
   <si>
-    <t>Я виконав квест.</t>
-  </si>
-  <si>
     <t>Ну а життя триває...</t>
   </si>
   <si>
@@ -456,6 +411,51 @@
   </si>
   <si>
     <t>"Вибери своє ім'я".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Радий тебе бачити. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тобі слід поговорити з Беном у Локація2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я чув, що ти мене шукаєш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У мене для тебе є міні-гра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ти завершив міні-гру! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я знову тут… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ще раз привіт, {PlayerName}! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ні, {PlayerName}! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краще віддайте мені! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей предмет потрібен Бену. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дякую! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Це нечесно, {PlayerName}! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я виконав квест. </t>
+  </si>
+  <si>
+    <t>Well, life goes on…</t>
+  </si>
+  <si>
+    <t>Пройди її і я надам тобі необхідну інформацію!</t>
   </si>
 </sst>
 </file>
@@ -1305,14 +1305,14 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="231" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1771,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
